--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Sema3c-Nrp2.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Sema3c-Nrp2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,12 +76,18 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
     <t>M1</t>
   </si>
   <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -89,12 +95,6 @@
   </si>
   <si>
     <t>Nrp2</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>11.2066538833049</v>
+        <v>0.7272463333333333</v>
       </c>
       <c r="H2">
-        <v>11.2066538833049</v>
+        <v>2.181739</v>
       </c>
       <c r="I2">
-        <v>0.9691972741611062</v>
+        <v>0.058816423466797</v>
       </c>
       <c r="J2">
-        <v>0.9691972741611062</v>
+        <v>0.05881642346679699</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>54.6972304867492</v>
+        <v>55.56529466666667</v>
       </c>
       <c r="N2">
-        <v>54.6972304867492</v>
+        <v>166.695884</v>
       </c>
       <c r="O2">
-        <v>0.4259172202448373</v>
+        <v>0.424029640296873</v>
       </c>
       <c r="P2">
-        <v>0.4259172202448373</v>
+        <v>0.4240296402968731</v>
       </c>
       <c r="Q2">
-        <v>612.9729304403511</v>
+        <v>40.40965680691956</v>
       </c>
       <c r="R2">
-        <v>612.9729304403511</v>
+        <v>363.686911262276</v>
       </c>
       <c r="S2">
-        <v>0.4127978088795718</v>
+        <v>0.02493990688617449</v>
       </c>
       <c r="T2">
-        <v>0.4127978088795718</v>
+        <v>0.0249399068861745</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>11.2066538833049</v>
+        <v>0.7272463333333333</v>
       </c>
       <c r="H3">
-        <v>11.2066538833049</v>
+        <v>2.181739</v>
       </c>
       <c r="I3">
-        <v>0.9691972741611062</v>
+        <v>0.058816423466797</v>
       </c>
       <c r="J3">
-        <v>0.9691972741611062</v>
+        <v>0.05881642346679699</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>10.8039332891305</v>
+        <v>10.84181733333333</v>
       </c>
       <c r="N3">
-        <v>10.8039332891305</v>
+        <v>32.525452</v>
       </c>
       <c r="O3">
-        <v>0.08412823086777477</v>
+        <v>0.08273603031526086</v>
       </c>
       <c r="P3">
-        <v>0.08412823086777477</v>
+        <v>0.08273603031526089</v>
       </c>
       <c r="Q3">
-        <v>121.0759409496014</v>
+        <v>7.884671902336445</v>
       </c>
       <c r="R3">
-        <v>121.0759409496014</v>
+        <v>70.96204712102799</v>
       </c>
       <c r="S3">
-        <v>0.08153685203704354</v>
+        <v>0.004866237394984136</v>
       </c>
       <c r="T3">
-        <v>0.08153685203704354</v>
+        <v>0.004866237394984138</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>11.2066538833049</v>
+        <v>0.7272463333333333</v>
       </c>
       <c r="H4">
-        <v>11.2066538833049</v>
+        <v>2.181739</v>
       </c>
       <c r="I4">
-        <v>0.9691972741611062</v>
+        <v>0.058816423466797</v>
       </c>
       <c r="J4">
-        <v>0.9691972741611062</v>
+        <v>0.05881642346679699</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>39.8695375459458</v>
+        <v>40.13853466666666</v>
       </c>
       <c r="N4">
-        <v>39.8695375459458</v>
+        <v>120.415604</v>
       </c>
       <c r="O4">
-        <v>0.3104567169654085</v>
+        <v>0.3063050150071534</v>
       </c>
       <c r="P4">
-        <v>0.3104567169654085</v>
+        <v>0.3063050150071535</v>
       </c>
       <c r="Q4">
-        <v>446.804107764844</v>
+        <v>29.19060216170622</v>
       </c>
       <c r="R4">
-        <v>446.804107764844</v>
+        <v>262.715419455356</v>
       </c>
       <c r="S4">
-        <v>0.30089380382788</v>
+        <v>0.01801576547266434</v>
       </c>
       <c r="T4">
-        <v>0.30089380382788</v>
+        <v>0.01801576547266434</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>26</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>11.2066538833049</v>
+        <v>0.7272463333333333</v>
       </c>
       <c r="H5">
-        <v>11.2066538833049</v>
+        <v>2.181739</v>
       </c>
       <c r="I5">
-        <v>0.9691972741611062</v>
+        <v>0.058816423466797</v>
       </c>
       <c r="J5">
-        <v>0.9691972741611062</v>
+        <v>0.05881642346679699</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>20.8993781078458</v>
+        <v>21.88776266666666</v>
       </c>
       <c r="N5">
-        <v>20.8993781078458</v>
+        <v>65.66328799999999</v>
       </c>
       <c r="O5">
-        <v>0.1627395930164311</v>
+        <v>0.167029801355803</v>
       </c>
       <c r="P5">
-        <v>0.1627395930164311</v>
+        <v>0.167029801355803</v>
       </c>
       <c r="Q5">
-        <v>234.2120968309475</v>
+        <v>15.91779514420355</v>
       </c>
       <c r="R5">
-        <v>234.2120968309475</v>
+        <v>143.260156297832</v>
       </c>
       <c r="S5">
-        <v>0.1577267699496128</v>
+        <v>0.009824095528117891</v>
       </c>
       <c r="T5">
-        <v>0.1577267699496128</v>
+        <v>0.009824095528117891</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>11.2066538833049</v>
+        <v>0.7272463333333333</v>
       </c>
       <c r="H6">
-        <v>11.2066538833049</v>
+        <v>2.181739</v>
       </c>
       <c r="I6">
-        <v>0.9691972741611062</v>
+        <v>0.058816423466797</v>
       </c>
       <c r="J6">
-        <v>0.9691972741611062</v>
+        <v>0.05881642346679699</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.1521300675325</v>
+        <v>2.607653333333333</v>
       </c>
       <c r="N6">
-        <v>2.1521300675325</v>
+        <v>7.82296</v>
       </c>
       <c r="O6">
-        <v>0.01675823890554818</v>
+        <v>0.01989951302490964</v>
       </c>
       <c r="P6">
-        <v>0.01675823890554818</v>
+        <v>0.01989951302490964</v>
       </c>
       <c r="Q6">
-        <v>24.11817677869033</v>
+        <v>1.896406325271111</v>
       </c>
       <c r="R6">
-        <v>24.11817677869033</v>
+        <v>17.06765692744</v>
       </c>
       <c r="S6">
-        <v>0.01624203946699789</v>
+        <v>0.001170418184856128</v>
       </c>
       <c r="T6">
-        <v>0.01624203946699789</v>
+        <v>0.001170418184856127</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.129087248358295</v>
+        <v>11.23691433333333</v>
       </c>
       <c r="H7">
-        <v>0.129087248358295</v>
+        <v>33.71074299999999</v>
       </c>
       <c r="I7">
-        <v>0.01116399333294314</v>
+        <v>0.9087912603974913</v>
       </c>
       <c r="J7">
-        <v>0.01116399333294314</v>
+        <v>0.9087912603974913</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>54.6972304867492</v>
+        <v>55.56529466666667</v>
       </c>
       <c r="N7">
-        <v>54.6972304867492</v>
+        <v>166.695884</v>
       </c>
       <c r="O7">
-        <v>0.4259172202448373</v>
+        <v>0.424029640296873</v>
       </c>
       <c r="P7">
-        <v>0.4259172202448373</v>
+        <v>0.4240296402968731</v>
       </c>
       <c r="Q7">
-        <v>7.060714976353898</v>
+        <v>624.3824560757567</v>
       </c>
       <c r="R7">
-        <v>7.060714976353898</v>
+        <v>5619.442104681812</v>
       </c>
       <c r="S7">
-        <v>0.004754937007199038</v>
+        <v>0.3853544312512901</v>
       </c>
       <c r="T7">
-        <v>0.004754937007199038</v>
+        <v>0.3853544312512902</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.129087248358295</v>
+        <v>11.23691433333333</v>
       </c>
       <c r="H8">
-        <v>0.129087248358295</v>
+        <v>33.71074299999999</v>
       </c>
       <c r="I8">
-        <v>0.01116399333294314</v>
+        <v>0.9087912603974913</v>
       </c>
       <c r="J8">
-        <v>0.01116399333294314</v>
+        <v>0.9087912603974913</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>10.8039332891305</v>
+        <v>10.84181733333333</v>
       </c>
       <c r="N8">
-        <v>10.8039332891305</v>
+        <v>32.525452</v>
       </c>
       <c r="O8">
-        <v>0.08412823086777477</v>
+        <v>0.08273603031526086</v>
       </c>
       <c r="P8">
-        <v>0.08412823086777477</v>
+        <v>0.08273603031526089</v>
       </c>
       <c r="Q8">
-        <v>1.39465001974044</v>
+        <v>121.8285725923151</v>
       </c>
       <c r="R8">
-        <v>1.39465001974044</v>
+        <v>1096.457153330836</v>
       </c>
       <c r="S8">
-        <v>0.0009392070085201387</v>
+        <v>0.07518978127049096</v>
       </c>
       <c r="T8">
-        <v>0.0009392070085201387</v>
+        <v>0.07518978127049099</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +959,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.129087248358295</v>
+        <v>11.23691433333333</v>
       </c>
       <c r="H9">
-        <v>0.129087248358295</v>
+        <v>33.71074299999999</v>
       </c>
       <c r="I9">
-        <v>0.01116399333294314</v>
+        <v>0.9087912603974913</v>
       </c>
       <c r="J9">
-        <v>0.01116399333294314</v>
+        <v>0.9087912603974913</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>39.8695375459458</v>
+        <v>40.13853466666666</v>
       </c>
       <c r="N9">
-        <v>39.8695375459458</v>
+        <v>120.415604</v>
       </c>
       <c r="O9">
-        <v>0.3104567169654085</v>
+        <v>0.3063050150071534</v>
       </c>
       <c r="P9">
-        <v>0.3104567169654085</v>
+        <v>0.3063050150071535</v>
       </c>
       <c r="Q9">
-        <v>5.146648895123873</v>
+        <v>451.0332755148635</v>
       </c>
       <c r="R9">
-        <v>5.146648895123873</v>
+        <v>4059.299479633771</v>
       </c>
       <c r="S9">
-        <v>0.003465936718369235</v>
+        <v>0.2783673206544234</v>
       </c>
       <c r="T9">
-        <v>0.003465936718369235</v>
+        <v>0.2783673206544235</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1021,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
         <v>23</v>
       </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>26</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.129087248358295</v>
+        <v>11.23691433333333</v>
       </c>
       <c r="H10">
-        <v>0.129087248358295</v>
+        <v>33.71074299999999</v>
       </c>
       <c r="I10">
-        <v>0.01116399333294314</v>
+        <v>0.9087912603974913</v>
       </c>
       <c r="J10">
-        <v>0.01116399333294314</v>
+        <v>0.9087912603974913</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>20.8993781078458</v>
+        <v>21.88776266666666</v>
       </c>
       <c r="N10">
-        <v>20.8993781078458</v>
+        <v>65.66328799999999</v>
       </c>
       <c r="O10">
-        <v>0.1627395930164311</v>
+        <v>0.167029801355803</v>
       </c>
       <c r="P10">
-        <v>0.1627395930164311</v>
+        <v>0.167029801355803</v>
       </c>
       <c r="Q10">
-        <v>2.697843212341404</v>
+        <v>245.9509140336648</v>
       </c>
       <c r="R10">
-        <v>2.697843212341404</v>
+        <v>2213.558226302983</v>
       </c>
       <c r="S10">
-        <v>0.001816823731441316</v>
+        <v>0.1517952236980828</v>
       </c>
       <c r="T10">
-        <v>0.001816823731441316</v>
+        <v>0.1517952236980828</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1083,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
       </c>
-      <c r="D11" t="s">
-        <v>22</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.129087248358295</v>
+        <v>11.23691433333333</v>
       </c>
       <c r="H11">
-        <v>0.129087248358295</v>
+        <v>33.71074299999999</v>
       </c>
       <c r="I11">
-        <v>0.01116399333294314</v>
+        <v>0.9087912603974913</v>
       </c>
       <c r="J11">
-        <v>0.01116399333294314</v>
+        <v>0.9087912603974913</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>2.1521300675325</v>
+        <v>2.607653333333333</v>
       </c>
       <c r="N11">
-        <v>2.1521300675325</v>
+        <v>7.82296</v>
       </c>
       <c r="O11">
-        <v>0.01675823890554818</v>
+        <v>0.01989951302490964</v>
       </c>
       <c r="P11">
-        <v>0.01675823890554818</v>
+        <v>0.01989951302490964</v>
       </c>
       <c r="Q11">
-        <v>0.277812548526922</v>
+        <v>29.30197711769777</v>
       </c>
       <c r="R11">
-        <v>0.277812548526922</v>
+        <v>263.71779405928</v>
       </c>
       <c r="S11">
-        <v>0.0001870888674134082</v>
+        <v>0.01808450352320392</v>
       </c>
       <c r="T11">
-        <v>0.0001870888674134082</v>
+        <v>0.01808450352320392</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,61 +1145,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.227079134215988</v>
+        <v>0.1296596666666666</v>
       </c>
       <c r="H12">
-        <v>0.227079134215988</v>
+        <v>0.388979</v>
       </c>
       <c r="I12">
-        <v>0.01963873250595078</v>
+        <v>0.0104862926242283</v>
       </c>
       <c r="J12">
-        <v>0.01963873250595078</v>
+        <v>0.0104862926242283</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>54.6972304867492</v>
+        <v>55.56529466666667</v>
       </c>
       <c r="N12">
-        <v>54.6972304867492</v>
+        <v>166.695884</v>
       </c>
       <c r="O12">
-        <v>0.4259172202448373</v>
+        <v>0.424029640296873</v>
       </c>
       <c r="P12">
-        <v>0.4259172202448373</v>
+        <v>0.4240296402968731</v>
       </c>
       <c r="Q12">
-        <v>12.42059974294335</v>
+        <v>7.20457758471511</v>
       </c>
       <c r="R12">
-        <v>12.42059974294335</v>
+        <v>64.841198262436</v>
       </c>
       <c r="S12">
-        <v>0.008364474358066486</v>
+        <v>0.004446498889499278</v>
       </c>
       <c r="T12">
-        <v>0.008364474358066486</v>
+        <v>0.004446498889499279</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,61 +1207,61 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.227079134215988</v>
+        <v>0.1296596666666666</v>
       </c>
       <c r="H13">
-        <v>0.227079134215988</v>
+        <v>0.388979</v>
       </c>
       <c r="I13">
-        <v>0.01963873250595078</v>
+        <v>0.0104862926242283</v>
       </c>
       <c r="J13">
-        <v>0.01963873250595078</v>
+        <v>0.0104862926242283</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>10.8039332891305</v>
+        <v>10.84181733333333</v>
       </c>
       <c r="N13">
-        <v>10.8039332891305</v>
+        <v>32.525452</v>
       </c>
       <c r="O13">
-        <v>0.08412823086777477</v>
+        <v>0.08273603031526086</v>
       </c>
       <c r="P13">
-        <v>0.08412823086777477</v>
+        <v>0.08273603031526089</v>
       </c>
       <c r="Q13">
-        <v>2.453347817423045</v>
+        <v>1.405746421500889</v>
       </c>
       <c r="R13">
-        <v>2.453347817423045</v>
+        <v>12.651717793508</v>
       </c>
       <c r="S13">
-        <v>0.0016521718222111</v>
+        <v>0.0008675942244528488</v>
       </c>
       <c r="T13">
-        <v>0.0016521718222111</v>
+        <v>0.0008675942244528492</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,61 +1269,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.227079134215988</v>
+        <v>0.1296596666666666</v>
       </c>
       <c r="H14">
-        <v>0.227079134215988</v>
+        <v>0.388979</v>
       </c>
       <c r="I14">
-        <v>0.01963873250595078</v>
+        <v>0.0104862926242283</v>
       </c>
       <c r="J14">
-        <v>0.01963873250595078</v>
+        <v>0.0104862926242283</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>39.8695375459458</v>
+        <v>40.13853466666666</v>
       </c>
       <c r="N14">
-        <v>39.8695375459458</v>
+        <v>120.415604</v>
       </c>
       <c r="O14">
-        <v>0.3104567169654085</v>
+        <v>0.3063050150071534</v>
       </c>
       <c r="P14">
-        <v>0.3104567169654085</v>
+        <v>0.3063050150071535</v>
       </c>
       <c r="Q14">
-        <v>9.0535400675252</v>
+        <v>5.204349025368443</v>
       </c>
       <c r="R14">
-        <v>9.0535400675252</v>
+        <v>46.839141228316</v>
       </c>
       <c r="S14">
-        <v>0.00609697641915933</v>
+        <v>0.003212004019633651</v>
       </c>
       <c r="T14">
-        <v>0.00609697641915933</v>
+        <v>0.003212004019633652</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,61 +1331,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="C15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" t="s">
-        <v>26</v>
-      </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.227079134215988</v>
+        <v>0.1296596666666666</v>
       </c>
       <c r="H15">
-        <v>0.227079134215988</v>
+        <v>0.388979</v>
       </c>
       <c r="I15">
-        <v>0.01963873250595078</v>
+        <v>0.0104862926242283</v>
       </c>
       <c r="J15">
-        <v>0.01963873250595078</v>
+        <v>0.0104862926242283</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>20.8993781078458</v>
+        <v>21.88776266666666</v>
       </c>
       <c r="N15">
-        <v>20.8993781078458</v>
+        <v>65.66328799999999</v>
       </c>
       <c r="O15">
-        <v>0.1627395930164311</v>
+        <v>0.167029801355803</v>
       </c>
       <c r="P15">
-        <v>0.1627395930164311</v>
+        <v>0.167029801355803</v>
       </c>
       <c r="Q15">
-        <v>4.745812686382197</v>
+        <v>2.83796001143911</v>
       </c>
       <c r="R15">
-        <v>4.745812686382197</v>
+        <v>25.54164010295199</v>
       </c>
       <c r="S15">
-        <v>0.003195999335376986</v>
+        <v>0.001751523373983675</v>
       </c>
       <c r="T15">
-        <v>0.003195999335376986</v>
+        <v>0.001751523373983675</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,61 +1393,681 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0.1296596666666666</v>
+      </c>
+      <c r="H16">
+        <v>0.388979</v>
+      </c>
+      <c r="I16">
+        <v>0.0104862926242283</v>
+      </c>
+      <c r="J16">
+        <v>0.0104862926242283</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>2.607653333333333</v>
+      </c>
+      <c r="N16">
+        <v>7.82296</v>
+      </c>
+      <c r="O16">
+        <v>0.01989951302490964</v>
+      </c>
+      <c r="P16">
+        <v>0.01989951302490964</v>
+      </c>
+      <c r="Q16">
+        <v>0.3381074619822222</v>
+      </c>
+      <c r="R16">
+        <v>3.04296715784</v>
+      </c>
+      <c r="S16">
+        <v>0.0002086721166588449</v>
+      </c>
+      <c r="T16">
+        <v>0.0002086721166588449</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
         <v>23</v>
       </c>
-      <c r="C16" t="s">
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G17">
+        <v>0.02266633333333333</v>
+      </c>
+      <c r="H17">
+        <v>0.067999</v>
+      </c>
+      <c r="I17">
+        <v>0.00183315143530859</v>
+      </c>
+      <c r="J17">
+        <v>0.00183315143530859</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>55.56529466666667</v>
+      </c>
+      <c r="N17">
+        <v>166.695884</v>
+      </c>
+      <c r="O17">
+        <v>0.424029640296873</v>
+      </c>
+      <c r="P17">
+        <v>0.4240296402968731</v>
+      </c>
+      <c r="Q17">
+        <v>1.259461490679556</v>
+      </c>
+      <c r="R17">
+        <v>11.335153416116</v>
+      </c>
+      <c r="S17">
+        <v>0.0007773105437235981</v>
+      </c>
+      <c r="T17">
+        <v>0.0007773105437235983</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G18">
+        <v>0.02266633333333333</v>
+      </c>
+      <c r="H18">
+        <v>0.067999</v>
+      </c>
+      <c r="I18">
+        <v>0.00183315143530859</v>
+      </c>
+      <c r="J18">
+        <v>0.00183315143530859</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>10.84181733333333</v>
+      </c>
+      <c r="N18">
+        <v>32.525452</v>
+      </c>
+      <c r="O18">
+        <v>0.08273603031526086</v>
+      </c>
+      <c r="P18">
+        <v>0.08273603031526089</v>
+      </c>
+      <c r="Q18">
+        <v>0.2457442456164445</v>
+      </c>
+      <c r="R18">
+        <v>2.211698210548</v>
+      </c>
+      <c r="S18">
+        <v>0.0001516676727241555</v>
+      </c>
+      <c r="T18">
+        <v>0.0001516676727241555</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G19">
+        <v>0.02266633333333333</v>
+      </c>
+      <c r="H19">
+        <v>0.067999</v>
+      </c>
+      <c r="I19">
+        <v>0.00183315143530859</v>
+      </c>
+      <c r="J19">
+        <v>0.00183315143530859</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>40.13853466666666</v>
+      </c>
+      <c r="N19">
+        <v>120.415604</v>
+      </c>
+      <c r="O19">
+        <v>0.3063050150071534</v>
+      </c>
+      <c r="P19">
+        <v>0.3063050150071535</v>
+      </c>
+      <c r="Q19">
+        <v>0.9097934062662222</v>
+      </c>
+      <c r="R19">
+        <v>8.188140656396001</v>
+      </c>
+      <c r="S19">
+        <v>0.0005615034779025826</v>
+      </c>
+      <c r="T19">
+        <v>0.0005615034779025827</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G20">
+        <v>0.02266633333333333</v>
+      </c>
+      <c r="H20">
+        <v>0.067999</v>
+      </c>
+      <c r="I20">
+        <v>0.00183315143530859</v>
+      </c>
+      <c r="J20">
+        <v>0.00183315143530859</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>21.88776266666666</v>
+      </c>
+      <c r="N20">
+        <v>65.66328799999999</v>
+      </c>
+      <c r="O20">
+        <v>0.167029801355803</v>
+      </c>
+      <c r="P20">
+        <v>0.167029801355803</v>
+      </c>
+      <c r="Q20">
+        <v>0.4961153245235555</v>
+      </c>
+      <c r="R20">
+        <v>4.465037920712</v>
+      </c>
+      <c r="S20">
+        <v>0.000306190920094699</v>
+      </c>
+      <c r="T20">
+        <v>0.000306190920094699</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>24</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G21">
+        <v>0.02266633333333333</v>
+      </c>
+      <c r="H21">
+        <v>0.067999</v>
+      </c>
+      <c r="I21">
+        <v>0.00183315143530859</v>
+      </c>
+      <c r="J21">
+        <v>0.00183315143530859</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>2.607653333333333</v>
+      </c>
+      <c r="N21">
+        <v>7.82296</v>
+      </c>
+      <c r="O21">
+        <v>0.01989951302490964</v>
+      </c>
+      <c r="P21">
+        <v>0.01989951302490964</v>
+      </c>
+      <c r="Q21">
+        <v>0.05910593967111111</v>
+      </c>
+      <c r="R21">
+        <v>0.5319534570400001</v>
+      </c>
+      <c r="S21">
+        <v>3.647882086355509E-05</v>
+      </c>
+      <c r="T21">
+        <v>3.647882086355509E-05</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>0.2481946666666667</v>
+      </c>
+      <c r="H22">
+        <v>0.744584</v>
+      </c>
+      <c r="I22">
+        <v>0.02007287207617482</v>
+      </c>
+      <c r="J22">
+        <v>0.02007287207617482</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>55.56529466666667</v>
+      </c>
+      <c r="N22">
+        <v>166.695884</v>
+      </c>
+      <c r="O22">
+        <v>0.424029640296873</v>
+      </c>
+      <c r="P22">
+        <v>0.4240296402968731</v>
+      </c>
+      <c r="Q22">
+        <v>13.79100978802845</v>
+      </c>
+      <c r="R22">
+        <v>124.119088092256</v>
+      </c>
+      <c r="S22">
+        <v>0.008511492726185555</v>
+      </c>
+      <c r="T22">
+        <v>0.008511492726185557</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>0.2481946666666667</v>
+      </c>
+      <c r="H23">
+        <v>0.744584</v>
+      </c>
+      <c r="I23">
+        <v>0.02007287207617482</v>
+      </c>
+      <c r="J23">
+        <v>0.02007287207617482</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>10.84181733333333</v>
+      </c>
+      <c r="N23">
+        <v>32.525452</v>
+      </c>
+      <c r="O23">
+        <v>0.08273603031526086</v>
+      </c>
+      <c r="P23">
+        <v>0.08273603031526089</v>
+      </c>
+      <c r="Q23">
+        <v>2.690881239107556</v>
+      </c>
+      <c r="R23">
+        <v>24.217931151968</v>
+      </c>
+      <c r="S23">
+        <v>0.001660749752608753</v>
+      </c>
+      <c r="T23">
+        <v>0.001660749752608754</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
         <v>22</v>
       </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>0.227079134215988</v>
-      </c>
-      <c r="H16">
-        <v>0.227079134215988</v>
-      </c>
-      <c r="I16">
-        <v>0.01963873250595078</v>
-      </c>
-      <c r="J16">
-        <v>0.01963873250595078</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>2.1521300675325</v>
-      </c>
-      <c r="N16">
-        <v>2.1521300675325</v>
-      </c>
-      <c r="O16">
-        <v>0.01675823890554818</v>
-      </c>
-      <c r="P16">
-        <v>0.01675823890554818</v>
-      </c>
-      <c r="Q16">
-        <v>0.4887038324554759</v>
-      </c>
-      <c r="R16">
-        <v>0.4887038324554759</v>
-      </c>
-      <c r="S16">
-        <v>0.0003291105711368781</v>
-      </c>
-      <c r="T16">
-        <v>0.0003291105711368781</v>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>0.2481946666666667</v>
+      </c>
+      <c r="H24">
+        <v>0.744584</v>
+      </c>
+      <c r="I24">
+        <v>0.02007287207617482</v>
+      </c>
+      <c r="J24">
+        <v>0.02007287207617482</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>40.13853466666666</v>
+      </c>
+      <c r="N24">
+        <v>120.415604</v>
+      </c>
+      <c r="O24">
+        <v>0.3063050150071534</v>
+      </c>
+      <c r="P24">
+        <v>0.3063050150071535</v>
+      </c>
+      <c r="Q24">
+        <v>9.962170232081778</v>
+      </c>
+      <c r="R24">
+        <v>89.659532088736</v>
+      </c>
+      <c r="S24">
+        <v>0.006148421382529398</v>
+      </c>
+      <c r="T24">
+        <v>0.006148421382529399</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>0.2481946666666667</v>
+      </c>
+      <c r="H25">
+        <v>0.744584</v>
+      </c>
+      <c r="I25">
+        <v>0.02007287207617482</v>
+      </c>
+      <c r="J25">
+        <v>0.02007287207617482</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>21.88776266666666</v>
+      </c>
+      <c r="N25">
+        <v>65.66328799999999</v>
+      </c>
+      <c r="O25">
+        <v>0.167029801355803</v>
+      </c>
+      <c r="P25">
+        <v>0.167029801355803</v>
+      </c>
+      <c r="Q25">
+        <v>5.432425959132444</v>
+      </c>
+      <c r="R25">
+        <v>48.891833632192</v>
+      </c>
+      <c r="S25">
+        <v>0.003352767835523924</v>
+      </c>
+      <c r="T25">
+        <v>0.003352767835523925</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>0.2481946666666667</v>
+      </c>
+      <c r="H26">
+        <v>0.744584</v>
+      </c>
+      <c r="I26">
+        <v>0.02007287207617482</v>
+      </c>
+      <c r="J26">
+        <v>0.02007287207617482</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>2.607653333333333</v>
+      </c>
+      <c r="N26">
+        <v>7.82296</v>
+      </c>
+      <c r="O26">
+        <v>0.01989951302490964</v>
+      </c>
+      <c r="P26">
+        <v>0.01989951302490964</v>
+      </c>
+      <c r="Q26">
+        <v>0.647205649848889</v>
+      </c>
+      <c r="R26">
+        <v>5.824850848640001</v>
+      </c>
+      <c r="S26">
+        <v>0.0003994403793271857</v>
+      </c>
+      <c r="T26">
+        <v>0.0003994403793271857</v>
       </c>
     </row>
   </sheetData>
